--- a/Analysis/Supply Analysis/SWP Analysis.xlsx
+++ b/Analysis/Supply Analysis/SWP Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armen\Desktop\Drought Indicators - SoCal\Analysis\Supply Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D714F23-FE8D-42B7-804C-214A1BB1B2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEF0C16-0755-47A7-B967-9BFFEF41AAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="log y DV+1" sheetId="55" r:id="rId1"/>
@@ -2528,7 +2528,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2002-2007</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2995,7 +3050,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2008-2020</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -3036,7 +3146,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
@@ -30123,8 +30234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED77D390-167A-4243-9340-64D0C05329E8}">
   <dimension ref="B1:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V101" sqref="V101"/>
+    <sheetView topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32816,8 +32927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF1C02E-78DC-4F9D-8461-989A605BEC9E}">
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Analysis/Supply Analysis/SWP Analysis.xlsx
+++ b/Analysis/Supply Analysis/SWP Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armen\Desktop\Drought Indicators - SoCal\Analysis\Supply Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEF0C16-0755-47A7-B967-9BFFEF41AAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138DA48A-9AEE-48F1-8126-8215CE0A52D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="log y DV+1" sheetId="55" r:id="rId1"/>
@@ -32928,7 +32928,7 @@
   <dimension ref="A2:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F6"/>
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
